--- a/data/long_razon/P18_4-Estudios-long_razon.xlsx
+++ b/data/long_razon/P18_4-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-62,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>63,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-26,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-73,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-68,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-14,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-76,87; -17,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 169,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-52,64; 5,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-81,63; -62,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 70,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 30,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-77,21; -48,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 77,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-33,58; 7,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-58,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>43,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-63,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-60,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>41,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-67,83; -44,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 91,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 25,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-70,84; -54,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,75; 73,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 16,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,07; -52,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,75; 69,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 13,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-79,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>124,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-67,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>120,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-73,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>122,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-86,28; -70,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,2; 211,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 36,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-75,9; -56,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>65,82; 177,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 24,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-78,88; -67,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>83,46; 175,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 22,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-65,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>68,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-66,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>55,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-66,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-4,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,95; -56,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,21; 106,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 9,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-72,09; -61,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,21; 79,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 11,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-70,53; -61,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,16; 83,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 6,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P18_4-Estudios-long_razon.xlsx
+++ b/data/long_razon/P18_4-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.5725223171382298</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.5215299874522384</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.2573298873220385</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.279051905512019</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.4969951152406461</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.1506706627072843</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.06247952041825196</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.06715794161014246</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.5359087077931083</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.2988465894338623</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.1552394284699618</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.1408688060542025</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.7694109134672855</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.02611614073251028</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5254269712099789</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.3232203624868581</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.681479442724743</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.2480926828870799</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2921491080876305</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.2386846427204565</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.6870913032252984</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.0445596064422291</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.3466794607408889</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.1802448832286836</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-0.2938456445318133</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.749994180992552</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.04314641628259305</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.155217210411962</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.1573119552405962</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.7449212318680899</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.2294578011934444</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.5214048255333942</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.3618433704187458</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.8618510805632069</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.06871660208184907</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.5586227520926608</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.548814870563881</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.3995168371743078</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.04231693056783745</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.2193848704955273</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.5911572327047423</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.4343752053760114</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.05789034111779338</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.4198705058926828</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.5703536940944232</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.41713768139594</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.05029238290696366</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.3268888408265037</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.6865382016145762</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.03443329842809013</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2591589679822002</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.4412098705175039</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.6882387858117719</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.08225563708344548</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2281106624010238</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.5498234386666646</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.6590266729204532</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.1126470325393022</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.2074527211252399</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.4403458922501439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.3465642345646265</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.8762793499709371</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2351746432732083</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.09710649208264194</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.4519836370695194</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.825842700210368</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.1529047129544381</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>-0.2544999838857135</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>-0.4451205747865412</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.7344102656170426</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.1166186567624284</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>-0.1606954392574172</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +931,284 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.8351565722802028</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.141778781579901</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.03911883437386852</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.0869075927004368</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.7337489052598647</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1.164867126483949</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.00116917409710745</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.3612696755690956</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.7848020247323273</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>1.154410442189849</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.01791748390797503</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.241289624699686</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.9063918325533719</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.5844882589931261</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.1993026297942115</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.3319911411584348</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.8171238130356355</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.6352726142298775</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.189808348507594</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.5035820881250958</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.8403779874088845</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.7381164845987186</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.1432105630653665</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.3782813686579004</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.7386391184820809</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.105157180215962</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.3732326673599579</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.3550359849206238</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-0.6254130485035038</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.8071901355669</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.2405417250634029</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>-0.1572131279507248</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.7104655134205943</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.694654115572958</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.2061234773961148</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>-0.04315204300361253</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.655099994507101</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.623523977444424</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.07041531179206412</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.09523662072845278</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.6258867486939199</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.5758117472759181</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.04214925052258209</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.2910064972333527</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.6404829035492705</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.5979115399081364</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.05574153905081163</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.2064102964271291</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.7321353898218069</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.2833268809286945</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2102883780597712</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2691059503817144</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.693373623767596</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.3416117461590278</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1598153048999471</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.3949132317575436</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.6957750641598254</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.3938697434842288</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.1473534183166169</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.3154099061979138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.5449219679107506</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.025711229254292</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1149517269067949</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.1434028680262629</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.5397856496104925</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.8785104124254568</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.1116469427266619</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.1618659273494341</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.573804493696315</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.831377535848021</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.0488075388180656</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>-0.08474838874564382</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
